--- a/Income/CVX_inc.xlsx
+++ b/Income/CVX_inc.xlsx
@@ -1817,10 +1817,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>0.3982</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.4193</v>
@@ -1946,10 +1944,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>-0.0912</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>-0.0713</v>
@@ -2075,10 +2071,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>-0.0989</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-0.0787</v>
@@ -2204,10 +2198,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>-0.0815</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>-0.0585</v>
@@ -2333,10 +2325,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0269</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.0175</v>
@@ -3353,10 +3343,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.1347</v>
@@ -3482,10 +3470,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.1056</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.1117</v>
